--- a/data/claudio-serafino-tekken-8-frame-data.xlsx
+++ b/data/claudio-serafino-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -522,15 +518,11 @@
       <c r="D3" t="n">
         <v>17</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -550,15 +542,11 @@
         <v>17</v>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
@@ -583,10 +571,8 @@
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
@@ -611,10 +597,8 @@
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
+      <c r="F6" t="n">
+        <v>70</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -638,11 +622,7 @@
           <t>SP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -666,15 +646,11 @@
       <c r="D8" t="n">
         <v>12</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
@@ -698,15 +674,11 @@
         <v>16</v>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E9" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
@@ -732,15 +704,11 @@
       <c r="D10" t="n">
         <v>12</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -760,15 +728,11 @@
         <v>23</v>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
@@ -844,15 +808,11 @@
       <c r="D14" t="n">
         <v>12</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
@@ -924,15 +884,11 @@
       <c r="D17" t="n">
         <v>24</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>70</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -958,15 +914,11 @@
       <c r="D18" t="n">
         <v>12</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -990,15 +942,11 @@
         <v>27</v>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1028,15 +976,11 @@
       <c r="D20" t="n">
         <v>18</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>70</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1066,15 +1010,11 @@
       <c r="D21" t="n">
         <v>22</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E21" t="n">
+        <v>13</v>
+      </c>
+      <c r="F21" t="n">
+        <v>70</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1104,15 +1044,11 @@
       <c r="D22" t="n">
         <v>14</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E22" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" t="n">
+        <v>70</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,15 +1074,9 @@
       <c r="D23" t="n">
         <v>72</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>70</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1172,15 +1102,11 @@
       <c r="D24" t="n">
         <v>13</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1200,15 +1126,11 @@
         <v>35</v>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E25" t="n">
+        <v>12</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1238,15 +1160,11 @@
       <c r="D26" t="n">
         <v>29</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E26" t="n">
+        <v>14</v>
+      </c>
+      <c r="F26" t="n">
+        <v>70</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1276,15 +1194,11 @@
       <c r="D27" t="n">
         <v>17</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E27" t="n">
+        <v>14</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-3</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1304,15 +1218,11 @@
         <v>28</v>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="E28" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>13</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1340,15 +1250,11 @@
         <v>30</v>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E29" t="n">
+        <v>12</v>
+      </c>
+      <c r="F29" t="n">
+        <v>70</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1376,15 +1282,11 @@
         <v>24</v>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E30" t="n">
+        <v>12</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-4</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1412,15 +1314,11 @@
         <v>44</v>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E31" t="n">
+        <v>13</v>
+      </c>
+      <c r="F31" t="n">
+        <v>70</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1449,10 +1347,8 @@
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="F32" t="n">
+        <v>70</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -1473,10 +1369,8 @@
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="F33" t="n">
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1498,15 +1392,11 @@
       <c r="D34" t="n">
         <v>36</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>70</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1532,15 +1422,11 @@
       <c r="D35" t="n">
         <v>17</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E35" t="n">
+        <v>8</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -1562,15 +1448,11 @@
       <c r="D36" t="n">
         <v>13</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E36" t="n">
+        <v>18</v>
+      </c>
+      <c r="F36" t="n">
+        <v>70</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1596,15 +1478,11 @@
       <c r="D37" t="n">
         <v>20</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E37" t="n">
+        <v>12</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-1</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -1646,15 +1524,11 @@
       <c r="D39" t="n">
         <v>16</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E39" t="n">
+        <v>17</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-3</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -1676,15 +1550,11 @@
       <c r="D40" t="n">
         <v>12</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E40" t="n">
+        <v>13</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-2</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -1706,15 +1576,11 @@
       <c r="D41" t="n">
         <v>10</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E41" t="n">
+        <v>5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1741,10 +1607,8 @@
         <v>17</v>
       </c>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="F42" t="n">
+        <v>70</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
@@ -1766,15 +1630,11 @@
       <c r="D43" t="n">
         <v>11</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -1794,15 +1654,11 @@
         <v>20</v>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E44" t="n">
+        <v>13</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
@@ -1828,15 +1684,11 @@
       <c r="D45" t="n">
         <v>24</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E45" t="n">
+        <v>15</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1862,15 +1714,11 @@
       <c r="D46" t="n">
         <v>15</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E46" t="n">
+        <v>13</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-2</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -1890,15 +1738,11 @@
         <v>17</v>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E47" t="n">
+        <v>11</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
@@ -1924,15 +1768,11 @@
       <c r="D48" t="n">
         <v>15</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>9</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -1952,15 +1792,11 @@
         <v>25</v>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E49" t="n">
+        <v>15</v>
+      </c>
+      <c r="F49" t="n">
+        <v>70</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1990,15 +1826,11 @@
       <c r="D50" t="n">
         <v>14</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E50" t="n">
+        <v>13</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2024,15 +1856,11 @@
       <c r="D51" t="n">
         <v>14</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E51" t="n">
+        <v>7</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -2052,15 +1880,11 @@
         <v>30</v>
       </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E52" t="n">
+        <v>12</v>
+      </c>
+      <c r="F52" t="n">
+        <v>70</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2088,15 +1912,11 @@
         <v>22</v>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
@@ -2122,15 +1942,11 @@
       <c r="D54" t="n">
         <v>13</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E54" t="n">
+        <v>8</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -2152,15 +1968,11 @@
       <c r="D55" t="n">
         <v>16</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
+      <c r="E55" t="n">
+        <v>18</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-7</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -2180,15 +1992,11 @@
         <v>24</v>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E56" t="n">
+        <v>14</v>
+      </c>
+      <c r="F56" t="n">
+        <v>70</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2218,15 +2026,11 @@
       <c r="D57" t="n">
         <v>12</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -2246,15 +2050,11 @@
         <v>21</v>
       </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>+6c</t>
-        </is>
+      <c r="E58" t="n">
+        <v>10</v>
+      </c>
+      <c r="F58" t="n">
+        <v>6</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
@@ -2278,15 +2078,11 @@
         <v>46</v>
       </c>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E59" t="n">
+        <v>18</v>
+      </c>
+      <c r="F59" t="n">
+        <v>70</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2314,15 +2110,11 @@
         <v>29</v>
       </c>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-27</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E60" t="n">
+        <v>27</v>
+      </c>
+      <c r="F60" t="n">
+        <v>70</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2352,15 +2144,11 @@
       <c r="D61" t="n">
         <v>18</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>15</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2390,15 +2178,11 @@
       <c r="D62" t="n">
         <v>17</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E62" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>70</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2428,10 +2212,8 @@
       <c r="D63" t="n">
         <v>22</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E63" t="n">
+        <v>-4</v>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
@@ -2458,15 +2240,11 @@
       <c r="D64" t="n">
         <v>14</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
+      <c r="E64" t="n">
+        <v>18</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-7</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
@@ -2486,15 +2264,11 @@
         <v>34</v>
       </c>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E65" t="n">
+        <v>13</v>
+      </c>
+      <c r="F65" t="n">
+        <v>70</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2522,10 +2296,8 @@
         <v>34</v>
       </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E66" t="n">
+        <v>2</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
@@ -2556,10 +2328,8 @@
       <c r="D67" t="n">
         <v>15</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E67" t="n">
+        <v>5</v>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
@@ -2586,15 +2356,11 @@
       <c r="D68" t="n">
         <v>13</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E68" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F68" t="n">
+        <v>70</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2641,10 +2407,8 @@
         <v>18</v>
       </c>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
+      <c r="F70" t="n">
+        <v>70</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
@@ -2734,15 +2498,11 @@
         <v>40</v>
       </c>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E74" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-3</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
@@ -2790,15 +2550,11 @@
         <v>40</v>
       </c>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E76" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
@@ -2824,15 +2580,11 @@
       <c r="D77" t="n">
         <v>20</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E77" t="n">
+        <v>12</v>
+      </c>
+      <c r="F77" t="n">
+        <v>6</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2857,10 +2609,8 @@
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="F78" t="n">
+        <v>70</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
@@ -2886,15 +2636,11 @@
       <c r="D79" t="n">
         <v>17</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>70</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2923,10 +2669,8 @@
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="F80" t="n">
+        <v>70</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
@@ -2952,15 +2696,11 @@
       <c r="D81" t="n">
         <v>20</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E81" t="n">
+        <v>12</v>
+      </c>
+      <c r="F81" t="n">
+        <v>70</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2991,10 +2731,8 @@
         <v>17</v>
       </c>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="F82" t="n">
+        <v>70</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -3020,15 +2758,11 @@
       <c r="D83" t="n">
         <v>16</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E83" t="n">
+        <v>9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>70</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3059,10 +2793,8 @@
         <v>13</v>
       </c>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="F84" t="n">
+        <v>70</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
@@ -3089,10 +2821,8 @@
         <v>12</v>
       </c>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="F85" t="n">
+        <v>70</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
@@ -3144,15 +2874,11 @@
       <c r="D87" t="n">
         <v>23</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E87" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F87" t="n">
+        <v>7</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3176,10 +2902,8 @@
         <v>40</v>
       </c>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E88" t="n">
+        <v>6</v>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
@@ -3206,15 +2930,11 @@
       <c r="D89" t="n">
         <v>20</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E89" t="n">
+        <v>11</v>
+      </c>
+      <c r="F89" t="n">
+        <v>70</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3240,15 +2960,11 @@
       <c r="D90" t="n">
         <v>15</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E90" t="n">
+        <v>13</v>
+      </c>
+      <c r="F90" t="n">
+        <v>70</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3274,15 +2990,11 @@
       <c r="D91" t="n">
         <v>12</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E91" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>7</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
@@ -3302,15 +3014,11 @@
         <v>27</v>
       </c>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E92" t="n">
+        <v>12</v>
+      </c>
+      <c r="F92" t="n">
+        <v>9</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
@@ -3356,15 +3064,11 @@
       <c r="D94" t="n">
         <v>15</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E94" t="n">
+        <v>14</v>
+      </c>
+      <c r="F94" t="n">
+        <v>70</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3390,15 +3094,11 @@
       <c r="D95" t="n">
         <v>16</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E95" t="n">
+        <v>8</v>
+      </c>
+      <c r="F95" t="n">
+        <v>70</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3424,15 +3124,11 @@
       <c r="D96" t="n">
         <v>11</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E96" t="n">
+        <v>6</v>
+      </c>
+      <c r="F96" t="n">
+        <v>5</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -3454,15 +3150,11 @@
       <c r="D97" t="n">
         <v>17</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E97" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F97" t="n">
+        <v>70</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3492,10 +3184,8 @@
       <c r="D98" t="n">
         <v>22</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E98" t="n">
+        <v>-4</v>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
@@ -3522,15 +3212,11 @@
       <c r="D99" t="n">
         <v>14</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
+      <c r="E99" t="n">
+        <v>18</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-7</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
@@ -3550,15 +3236,11 @@
         <v>34</v>
       </c>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E100" t="n">
+        <v>13</v>
+      </c>
+      <c r="F100" t="n">
+        <v>70</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3586,10 +3268,8 @@
         <v>34</v>
       </c>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E101" t="n">
+        <v>2</v>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
@@ -3620,10 +3300,8 @@
       <c r="D102" t="n">
         <v>15</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
+      <c r="E102" t="n">
+        <v>5</v>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
@@ -3650,15 +3328,11 @@
       <c r="D103" t="n">
         <v>13</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E103" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F103" t="n">
+        <v>70</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3705,10 +3379,8 @@
         <v>18</v>
       </c>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
+      <c r="F105" t="n">
+        <v>70</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
@@ -3798,15 +3470,11 @@
         <v>40</v>
       </c>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E109" t="n">
+        <v>3</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-3</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
@@ -3854,15 +3522,11 @@
         <v>40</v>
       </c>
       <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="E111" t="n">
+        <v>3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
@@ -3888,15 +3552,11 @@
       <c r="D112" t="n">
         <v>20</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E112" t="n">
+        <v>12</v>
+      </c>
+      <c r="F112" t="n">
+        <v>6</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3921,10 +3581,8 @@
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="F113" t="n">
+        <v>70</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
@@ -3950,15 +3608,11 @@
       <c r="D114" t="n">
         <v>17</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>70</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3987,10 +3641,8 @@
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="F115" t="n">
+        <v>70</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
@@ -4016,15 +3668,11 @@
       <c r="D116" t="n">
         <v>20</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E116" t="n">
+        <v>12</v>
+      </c>
+      <c r="F116" t="n">
+        <v>70</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4055,10 +3703,8 @@
         <v>17</v>
       </c>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="F117" t="n">
+        <v>70</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
@@ -4084,15 +3730,11 @@
       <c r="D118" t="n">
         <v>16</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E118" t="n">
+        <v>9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>70</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4123,10 +3765,8 @@
         <v>13</v>
       </c>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="F119" t="n">
+        <v>70</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
@@ -4153,10 +3793,8 @@
         <v>12</v>
       </c>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="F120" t="n">
+        <v>70</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
@@ -4208,15 +3846,11 @@
       <c r="D122" t="n">
         <v>23</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E122" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4240,10 +3874,8 @@
         <v>40</v>
       </c>
       <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E123" t="n">
+        <v>6</v>
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
@@ -4270,15 +3902,11 @@
       <c r="D124" t="n">
         <v>20</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E124" t="n">
+        <v>11</v>
+      </c>
+      <c r="F124" t="n">
+        <v>70</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4304,15 +3932,11 @@
       <c r="D125" t="n">
         <v>15</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E125" t="n">
+        <v>13</v>
+      </c>
+      <c r="F125" t="n">
+        <v>70</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4338,15 +3962,11 @@
       <c r="D126" t="n">
         <v>12</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E126" t="n">
+        <v>4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>7</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
@@ -4366,15 +3986,11 @@
         <v>27</v>
       </c>
       <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E127" t="n">
+        <v>12</v>
+      </c>
+      <c r="F127" t="n">
+        <v>9</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
@@ -4420,15 +4036,11 @@
       <c r="D129" t="n">
         <v>15</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E129" t="n">
+        <v>14</v>
+      </c>
+      <c r="F129" t="n">
+        <v>70</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4454,15 +4066,11 @@
       <c r="D130" t="n">
         <v>16</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="E130" t="n">
+        <v>8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>70</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4488,1082 +4096,14 @@
       <c r="D131" t="n">
         <v>11</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E131" t="n">
+        <v>6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>f+3+4</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>18</v>
-      </c>
-      <c r="D132" t="n">
-        <v>17</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Homing</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>f+4</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>23</v>
-      </c>
-      <c r="D133" t="n">
-        <v>22</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>f,F+2</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>14</v>
-      </c>
-      <c r="D134" t="n">
-        <v>14</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>f,F+2,1+2</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>34</v>
-      </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Grants STB on hit / Can be delayed / Combo from 1st NH</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>f,F+2,2</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>34</v>
-      </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Combo from 1st hit / Can be delayed / Same move as FC.df+2,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>f,F+4</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>20</v>
-      </c>
-      <c r="D137" t="n">
-        <v>15</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>f,f,F+2</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>40</v>
-      </c>
-      <c r="D138" t="n">
-        <v>13</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Heat Engager / Grants STB on hit / Wall Crush +21g at the wall / Chip damage when guarded</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>2,1,2</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="n">
-        <v>0</v>
-      </c>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>H.2+3</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>L,TH</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>52</v>
-      </c>
-      <c r="D140" t="n">
-        <v>18</v>
-      </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Heat Smash</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>H.3,2,F</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>36</v>
-      </c>
-      <c r="D141" t="n">
-        <v>14</v>
-      </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>H.b+4,2,F</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>30</v>
-      </c>
-      <c r="D142" t="n">
-        <v>17</v>
-      </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>H.f,f,F+2,F</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>40</v>
-      </c>
-      <c r="D143" t="n">
-        <v>13</v>
-      </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Left throw</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>TH(H)</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>40</v>
-      </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Break: 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>R.df+1+2</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>M,TH</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>55</v>
-      </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Rage Art</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Right throw</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>TH(H)</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>40</v>
-      </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Break: 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>SS.4</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>20</v>
-      </c>
-      <c r="D147" t="n">
-        <v>20</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>STB.4,2</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>H,SM</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>45</v>
-      </c>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Chip damage when guarded</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>STB.b+4,3,2</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>M,H,M</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>62</v>
-      </c>
-      <c r="D149" t="n">
-        <v>17</v>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Combo from 2nd CH / Chip damage when guarded</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>STB.d+1,2</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>39</v>
-      </c>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Chip damage when guarded</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>STB.d+2,2</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>L,L</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>28</v>
-      </c>
-      <c r="D151" t="n">
-        <v>20</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Combo from 1st CH</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>STB.db+1+2</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>25</v>
-      </c>
-      <c r="D152" t="n">
-        <v>17</v>
-      </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Chip damage when guarded</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>STB.f+1+2,1+2</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>24</v>
-      </c>
-      <c r="D153" t="n">
-        <v>16</v>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Combo from 1st hit / Can be delayed / Chip damage when guarded</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>STB.f,f,F+1+2</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>55</v>
-      </c>
-      <c r="D154" t="n">
-        <v>13</v>
-      </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Chip damage when guarded</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>STB.ws1,2</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>35</v>
-      </c>
-      <c r="D155" t="n">
-        <v>12</v>
-      </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Chip damage when guarded</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>u+2</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>21</v>
-      </c>
-      <c r="D156" t="n">
-        <v>21</v>
-      </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Heat Engager / Grants STB on hit / Alternate input: ub+2/uf+2</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>u+3</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>20</v>
-      </c>
-      <c r="D157" t="n">
-        <v>23</v>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>uf+1+2</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>TH(H)</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>40</v>
-      </c>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Break: 1+2</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>uf+3+4</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>MM</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>24</v>
-      </c>
-      <c r="D159" t="n">
-        <v>20</v>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>uf+4</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>13</v>
-      </c>
-      <c r="D160" t="n">
-        <v>15</v>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>ws1</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>12</v>
-      </c>
-      <c r="D161" t="n">
-        <v>12</v>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>ws1,1</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>27</v>
-      </c>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>Combo from 1st hit</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>ws1,2</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>24</v>
-      </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>ws2</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>20</v>
-      </c>
-      <c r="D164" t="n">
-        <v>15</v>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>ws3</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>20</v>
-      </c>
-      <c r="D165" t="n">
-        <v>16</v>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>ws4</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>18</v>
-      </c>
-      <c r="D166" t="n">
-        <v>11</v>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/claudio-serafino-tekken-8-frame-data.xlsx
+++ b/data/claudio-serafino-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
@@ -519,7 +519,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -543,7 +543,7 @@
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="n">
         <v>6</v>
@@ -647,7 +647,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F9" t="n">
         <v>-1</v>
@@ -705,7 +705,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F10" t="n">
         <v>3</v>
@@ -729,7 +729,7 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F11" t="n">
         <v>5</v>
@@ -809,7 +809,7 @@
         <v>12</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>24</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F17" t="n">
         <v>70</v>
@@ -915,7 +915,7 @@
         <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
@@ -977,7 +977,7 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F20" t="n">
         <v>70</v>
@@ -1011,7 +1011,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F21" t="n">
         <v>70</v>
@@ -1045,7 +1045,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F22" t="n">
         <v>70</v>
@@ -1103,7 +1103,7 @@
         <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F24" t="n">
         <v>7</v>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F25" t="n">
         <v>7</v>
@@ -1161,7 +1161,7 @@
         <v>29</v>
       </c>
       <c r="E26" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F26" t="n">
         <v>70</v>
@@ -1195,7 +1195,7 @@
         <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F27" t="n">
         <v>-3</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F28" t="n">
         <v>13</v>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F29" t="n">
         <v>70</v>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F30" t="n">
         <v>-4</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F31" t="n">
         <v>70</v>
@@ -1423,7 +1423,7 @@
         <v>17</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F35" t="n">
         <v>2</v>
@@ -1449,7 +1449,7 @@
         <v>13</v>
       </c>
       <c r="E36" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F36" t="n">
         <v>70</v>
@@ -1479,7 +1479,7 @@
         <v>20</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F37" t="n">
         <v>-1</v>
@@ -1525,7 +1525,7 @@
         <v>16</v>
       </c>
       <c r="E39" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F39" t="n">
         <v>-3</v>
@@ -1551,7 +1551,7 @@
         <v>12</v>
       </c>
       <c r="E40" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F40" t="n">
         <v>-2</v>
@@ -1577,7 +1577,7 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F41" t="n">
         <v>6</v>
@@ -1631,7 +1631,7 @@
         <v>11</v>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F43" t="n">
         <v>7</v>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F44" t="n">
         <v>3</v>
@@ -1685,7 +1685,7 @@
         <v>24</v>
       </c>
       <c r="E45" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F45" t="n">
         <v>3</v>
@@ -1715,7 +1715,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F46" t="n">
         <v>-2</v>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F48" t="n">
         <v>9</v>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F49" t="n">
         <v>70</v>
@@ -1827,7 +1827,7 @@
         <v>14</v>
       </c>
       <c r="E50" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F50" t="n">
         <v>5</v>
@@ -1857,7 +1857,7 @@
         <v>14</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F51" t="n">
         <v>4</v>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F52" t="n">
         <v>70</v>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F53" t="n">
         <v>4</v>
@@ -1943,7 +1943,7 @@
         <v>13</v>
       </c>
       <c r="E54" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F54" t="n">
         <v>3</v>
@@ -1969,7 +1969,7 @@
         <v>16</v>
       </c>
       <c r="E55" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F55" t="n">
         <v>-7</v>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F56" t="n">
         <v>70</v>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F58" t="n">
         <v>6</v>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F59" t="n">
         <v>70</v>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>27</v>
+        <v>-27</v>
       </c>
       <c r="F60" t="n">
         <v>70</v>
@@ -2179,7 +2179,7 @@
         <v>17</v>
       </c>
       <c r="E62" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
         <v>70</v>
@@ -2213,7 +2213,7 @@
         <v>22</v>
       </c>
       <c r="E63" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
@@ -2241,7 +2241,7 @@
         <v>14</v>
       </c>
       <c r="E64" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F64" t="n">
         <v>-7</v>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F65" t="n">
         <v>70</v>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
@@ -2329,7 +2329,7 @@
         <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
@@ -2357,7 +2357,7 @@
         <v>13</v>
       </c>
       <c r="E68" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F68" t="n">
         <v>70</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F74" t="n">
         <v>-3</v>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>20</v>
       </c>
       <c r="E77" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F77" t="n">
         <v>6</v>
@@ -2637,7 +2637,7 @@
         <v>17</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F79" t="n">
         <v>70</v>
@@ -2697,7 +2697,7 @@
         <v>20</v>
       </c>
       <c r="E81" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F81" t="n">
         <v>70</v>
@@ -2759,7 +2759,7 @@
         <v>16</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F83" t="n">
         <v>70</v>
@@ -2875,7 +2875,7 @@
         <v>23</v>
       </c>
       <c r="E87" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
         <v>7</v>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
@@ -2931,7 +2931,7 @@
         <v>20</v>
       </c>
       <c r="E89" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F89" t="n">
         <v>70</v>
@@ -2961,7 +2961,7 @@
         <v>15</v>
       </c>
       <c r="E90" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F90" t="n">
         <v>70</v>
@@ -2991,7 +2991,7 @@
         <v>12</v>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F91" t="n">
         <v>7</v>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F92" t="n">
         <v>9</v>
@@ -3065,7 +3065,7 @@
         <v>15</v>
       </c>
       <c r="E94" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F94" t="n">
         <v>70</v>
@@ -3095,7 +3095,7 @@
         <v>16</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F95" t="n">
         <v>70</v>
@@ -3125,985 +3125,13 @@
         <v>11</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F96" t="n">
         <v>5</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>f+3+4</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>18</v>
-      </c>
-      <c r="D97" t="n">
-        <v>17</v>
-      </c>
-      <c r="E97" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F97" t="n">
-        <v>70</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Homing</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>f+4</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>23</v>
-      </c>
-      <c r="D98" t="n">
-        <v>22</v>
-      </c>
-      <c r="E98" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>f,F+2</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>14</v>
-      </c>
-      <c r="D99" t="n">
-        <v>14</v>
-      </c>
-      <c r="E99" t="n">
-        <v>18</v>
-      </c>
-      <c r="F99" t="n">
-        <v>-7</v>
-      </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>f,F+2,1+2</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>34</v>
-      </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="n">
-        <v>13</v>
-      </c>
-      <c r="F100" t="n">
-        <v>70</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Grants STB on hit / Can be delayed / Combo from 1st NH</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>f,F+2,2</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>34</v>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="n">
-        <v>2</v>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Combo from 1st hit / Can be delayed / Same move as FC.df+2,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>f,F+4</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>20</v>
-      </c>
-      <c r="D102" t="n">
-        <v>15</v>
-      </c>
-      <c r="E102" t="n">
-        <v>5</v>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>f,f,F+2</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>40</v>
-      </c>
-      <c r="D103" t="n">
-        <v>13</v>
-      </c>
-      <c r="E103" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F103" t="n">
-        <v>70</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Heat Engager / Grants STB on hit / Wall Crush +21g at the wall / Chip damage when guarded</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2,1,2</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>H.2+3</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>L,TH</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>52</v>
-      </c>
-      <c r="D105" t="n">
-        <v>18</v>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="n">
-        <v>70</v>
-      </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Heat Smash</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>H.3,2,F</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>36</v>
-      </c>
-      <c r="D106" t="n">
-        <v>14</v>
-      </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>H.b+4,2,F</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>30</v>
-      </c>
-      <c r="D107" t="n">
-        <v>17</v>
-      </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>H.f,f,F+2,F</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>40</v>
-      </c>
-      <c r="D108" t="n">
-        <v>13</v>
-      </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Left throw</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>TH(H)</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>40</v>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="n">
-        <v>3</v>
-      </c>
-      <c r="F109" t="n">
-        <v>-3</v>
-      </c>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Break: 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>R.df+1+2</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>M,TH</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>55</v>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Rage Art</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Right throw</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>TH(H)</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>40</v>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="n">
-        <v>3</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Break: 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>SS.4</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>20</v>
-      </c>
-      <c r="D112" t="n">
-        <v>20</v>
-      </c>
-      <c r="E112" t="n">
-        <v>12</v>
-      </c>
-      <c r="F112" t="n">
-        <v>6</v>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>STB.4,2</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>H,SM</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>45</v>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="n">
-        <v>70</v>
-      </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Chip damage when guarded</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>STB.b+4,3,2</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>M,H,M</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>62</v>
-      </c>
-      <c r="D114" t="n">
-        <v>17</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1</v>
-      </c>
-      <c r="F114" t="n">
-        <v>70</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Combo from 2nd CH / Chip damage when guarded</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>STB.d+1,2</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>39</v>
-      </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="n">
-        <v>70</v>
-      </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Chip damage when guarded</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>STB.d+2,2</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>L,L</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>28</v>
-      </c>
-      <c r="D116" t="n">
-        <v>20</v>
-      </c>
-      <c r="E116" t="n">
-        <v>12</v>
-      </c>
-      <c r="F116" t="n">
-        <v>70</v>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Combo from 1st CH</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>STB.db+1+2</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>25</v>
-      </c>
-      <c r="D117" t="n">
-        <v>17</v>
-      </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="n">
-        <v>70</v>
-      </c>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Chip damage when guarded</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>STB.f+1+2,1+2</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>24</v>
-      </c>
-      <c r="D118" t="n">
-        <v>16</v>
-      </c>
-      <c r="E118" t="n">
-        <v>9</v>
-      </c>
-      <c r="F118" t="n">
-        <v>70</v>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Combo from 1st hit / Can be delayed / Chip damage when guarded</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>STB.f,f,F+1+2</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>55</v>
-      </c>
-      <c r="D119" t="n">
-        <v>13</v>
-      </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="n">
-        <v>70</v>
-      </c>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Chip damage when guarded</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>STB.ws1,2</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>35</v>
-      </c>
-      <c r="D120" t="n">
-        <v>12</v>
-      </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="n">
-        <v>70</v>
-      </c>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Chip damage when guarded</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>u+2</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>21</v>
-      </c>
-      <c r="D121" t="n">
-        <v>21</v>
-      </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Heat Engager / Grants STB on hit / Alternate input: ub+2/uf+2</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>u+3</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>20</v>
-      </c>
-      <c r="D122" t="n">
-        <v>23</v>
-      </c>
-      <c r="E122" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F122" t="n">
-        <v>7</v>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>uf+1+2</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>TH(H)</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>40</v>
-      </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="n">
-        <v>6</v>
-      </c>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Break: 1+2</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>uf+3+4</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>MM</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>24</v>
-      </c>
-      <c r="D124" t="n">
-        <v>20</v>
-      </c>
-      <c r="E124" t="n">
-        <v>11</v>
-      </c>
-      <c r="F124" t="n">
-        <v>70</v>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>uf+4</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>13</v>
-      </c>
-      <c r="D125" t="n">
-        <v>15</v>
-      </c>
-      <c r="E125" t="n">
-        <v>13</v>
-      </c>
-      <c r="F125" t="n">
-        <v>70</v>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>ws1</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>12</v>
-      </c>
-      <c r="D126" t="n">
-        <v>12</v>
-      </c>
-      <c r="E126" t="n">
-        <v>4</v>
-      </c>
-      <c r="F126" t="n">
-        <v>7</v>
-      </c>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>ws1,1</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>27</v>
-      </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="n">
-        <v>12</v>
-      </c>
-      <c r="F127" t="n">
-        <v>9</v>
-      </c>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Combo from 1st hit</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>ws1,2</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>24</v>
-      </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>ws2</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>20</v>
-      </c>
-      <c r="D129" t="n">
-        <v>15</v>
-      </c>
-      <c r="E129" t="n">
-        <v>14</v>
-      </c>
-      <c r="F129" t="n">
-        <v>70</v>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>ws3</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>20</v>
-      </c>
-      <c r="D130" t="n">
-        <v>16</v>
-      </c>
-      <c r="E130" t="n">
-        <v>8</v>
-      </c>
-      <c r="F130" t="n">
-        <v>70</v>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>ws4</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>18</v>
-      </c>
-      <c r="D131" t="n">
-        <v>11</v>
-      </c>
-      <c r="E131" t="n">
-        <v>6</v>
-      </c>
-      <c r="F131" t="n">
-        <v>5</v>
-      </c>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
